--- a/Document/Cong viec.xlsx
+++ b/Document/Cong viec.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Project cần làm</t>
   </si>
@@ -79,7 +79,7 @@
     <t>SELECT * FROM news where id=31</t>
   </si>
   <si>
-    <t>Chỉnh sửa</t>
+    <t>api-distributor-dev.apphomecare.vn/Order/getAllOrder</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,17 +501,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,9 +547,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Cong viec.xlsx
+++ b/Document/Cong viec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="17280" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Project cần làm</t>
   </si>
@@ -80,6 +80,25 @@
   </si>
   <si>
     <t>api-distributor-dev.apphomecare.vn/Order/getAllOrder</t>
+  </si>
+  <si>
+    <t>SELECT * FROM `user` where id in (SELECT account_id FROM account_business_unit WHERE business_unit_id in 
+(SELECT business_unit_id FROM enterprise_business_unit where account_id=39));</t>
+  </si>
+  <si>
+    <t>https://api-bu-dev.apphomecare.vn/EndUserInfo/Read</t>
+  </si>
+  <si>
+    <t>https://api-bu-dev.apphomecare.vn/EndUserInfo/Detail</t>
+  </si>
+  <si>
+    <t>SELECT * FROM `user` where id =44</t>
+  </si>
+  <si>
+    <t>https://api-bu-dev.apphomecare.vn/Account/Login</t>
+  </si>
+  <si>
+    <t>Tên API</t>
   </si>
 </sst>
 </file>
@@ -129,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -142,6 +161,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,58 +523,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Cong viec.xlsx
+++ b/Document/Cong viec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="17280" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Project cần làm</t>
   </si>
@@ -99,13 +99,52 @@
   </si>
   <si>
     <t>Tên API</t>
+  </si>
+  <si>
+    <t>https://api-bu-dev.apphomecare.vn/EndUserRequest/Read</t>
+  </si>
+  <si>
+    <t>SELECT * FROM issue WHERE user_id=12 and issue_type_id in (1,2,3,4);</t>
+  </si>
+  <si>
+    <t>SELECT * FROM issue WHERE user_id=12 and issue_type_id in (1,2,3,4) and id=105;</t>
+  </si>
+  <si>
+    <t>https://api-bu-dev.apphomecare.vn/EndUserRequest/Detail</t>
+  </si>
+  <si>
+    <t>API lấy danh sách yêu cầu mua hàng của End User</t>
+  </si>
+  <si>
+    <t>https://api-bu-dev.apphomecare.vn/EndUserOrder/Read</t>
+  </si>
+  <si>
+    <t>https://api-bu-dev.apphomecare.vn/EndUserOrder/Detail</t>
+  </si>
+  <si>
+    <t>API lấy chi tiết yêu cầu mua hàng của End User</t>
+  </si>
+  <si>
+    <t>API lấy danh sách yêu cầu dịch vụ của End User</t>
+  </si>
+  <si>
+    <t>API lấy chi tiết yêu cầu dịch vụ của End User</t>
+  </si>
+  <si>
+    <t>API lấy chi tiết End User</t>
+  </si>
+  <si>
+    <t>API lấy danh sách End User</t>
+  </si>
+  <si>
+    <t>API đăng nhập</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +165,19 @@
       <color rgb="FF0451A5"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -162,8 +214,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,121 +580,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="4" max="4" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A12" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/Cong viec.xlsx
+++ b/Document/Cong viec.xlsx
@@ -583,7 +583,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Document/Cong viec.xlsx
+++ b/Document/Cong viec.xlsx
@@ -583,7 +583,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Document/Cong viec.xlsx
+++ b/Document/Cong viec.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Project cần làm</t>
   </si>
@@ -138,13 +138,65 @@
   </si>
   <si>
     <t>API đăng nhập</t>
+  </si>
+  <si>
+    <t>SELECT * FROM telephone WHERE id = 70204;
+SELECT * FROM address where id=124363;
+SELECT * FROM corporation;
+SELECT * FROM personal_profile;
+SELECT * FROM enterprise;
+SELECT * FROM enterprise_devices;</t>
+  </si>
+  <si>
+    <t>API yêu cầu reset password</t>
+  </si>
+  <si>
+    <t>API xác thực OTP</t>
+  </si>
+  <si>
+    <t>API đổi password</t>
+  </si>
+  <si>
+    <t>API đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>https://localhost:44302/Account/Registry</t>
+  </si>
+  <si>
+    <t>API lấy chi tiết order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM `order` WHERE ID=2;
+SELECT * FROM order_item WHERE order_id=2;
+SELECT * FROM price_quotation where id=16;
+SELECT * FROM price_quotation_item where price_quotation_id=16;
+SELECT * FROM promotion_plan_user where id=0;
+SELECT * FROM promotion_plan ;
+SELECT * FROM payment where id=0;
+SELECT * FROM issue where id=1;
+SELECT * FROM engineer;
+--Nhánh 2
+SELECT * FROM `order` WHERE id=314;
+SELECT * FROM order_item WHERE order_id=314;
+SELECT * FROM shopping_carts where id=12;
+SELECT * FROM shopping_carts limit 100;
+SELECT * FROM shopping_carts_detail where shopping_cart_id=12 and trouble_id=203 and type =1 limit 100;
+SELECT * FROM trouble_type;
+SELECT * FROM issue where id=1;
+</t>
+  </si>
+  <si>
+    <t>SELECT d.* FROM enterprise_business_unit a 
+INNER JOIN user_business_unit c on a.business_unit_id=c.business_unit_id
+INNER JOIN `user` d on c.user_id=d.id
+where a.enterprise_id=6;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +231,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,10 +257,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -222,8 +283,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
@@ -738,7 +804,9 @@
       <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -760,9 +828,50 @@
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -771,6 +880,7 @@
     <hyperlink ref="A11" r:id="rId3"/>
     <hyperlink ref="A12" r:id="rId4"/>
     <hyperlink ref="A13" r:id="rId5"/>
+    <hyperlink ref="A18" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
